--- a/InputData/bldgs/ECiCpCU/Embedded Carbon in Components per Currency Unit.xlsx
+++ b/InputData/bldgs/ECiCpCU/Embedded Carbon in Components per Currency Unit.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="21075" windowHeight="12840"/>
+    <workbookView xWindow="360" yWindow="132" windowWidth="21072" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RFF Table 2" sheetId="2" r:id="rId2"/>
     <sheet name="ECiCpCU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Resources for the Future</t>
   </si>
@@ -105,9 +105,6 @@
     <t>other component</t>
   </si>
   <si>
-    <t>Embedded tons CO2/$</t>
-  </si>
-  <si>
     <t>Our source data table includes only combusion-related CO2 emissions, not process emissions and</t>
   </si>
   <si>
@@ -118,13 +115,31 @@
   </si>
   <si>
     <t>Page 46, Table 2</t>
+  </si>
+  <si>
+    <t>The source document doesn't specify the currency year for the figures in Table 2, but Table 3</t>
+  </si>
+  <si>
+    <t>specifies that it uses 2005 dollars, so we assume Table 2 also uses 2005 dollars.</t>
+  </si>
+  <si>
+    <t>We adjust 2005 dollars to 2012 dollars using the following conversion factor:</t>
+  </si>
+  <si>
+    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
+  </si>
+  <si>
+    <t>Embedded tons CO2/2012$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.0000000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +159,29 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -177,12 +215,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -198,10 +288,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Header: bottom row" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Table title" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -500,21 +598,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="53.140625" customWidth="1"/>
+    <col min="2" max="2" width="53.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -522,49 +620,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>31</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>1.117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -582,10 +705,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -731,10 +854,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -742,61 +865,61 @@
         <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
-        <f>'RFF Table 2'!B3/10^6</f>
-        <v>9.1500000000000001E-5</v>
+      <c r="B2" s="10">
+        <f>'RFF Table 2'!B3/10^6/About!$A$19</f>
+        <v>8.191584601611459E-5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
-        <f>'RFF Table 2'!B6/10^6</f>
-        <v>9.1500000000000001E-5</v>
+      <c r="B3" s="10">
+        <f>'RFF Table 2'!B6/10^6/About!$A$19</f>
+        <v>8.191584601611459E-5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <f>AVERAGE('RFF Table 2'!B9:B11)/10^6</f>
-        <v>2.1486999999999999E-3</v>
+      <c r="B4" s="10">
+        <f>AVERAGE('RFF Table 2'!B9:B11)/10^6/About!$A$19</f>
+        <v>1.9236347358997314E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
-        <f>AVERAGE('RFF Table 2'!B14:B15)/10^6</f>
-        <v>1.3206999999999997E-3</v>
+      <c r="B5" s="10">
+        <f>AVERAGE('RFF Table 2'!B14:B15)/10^6/About!$A$19</f>
+        <v>1.1823634735899729E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6">
-        <f>AVERAGE('RFF Table 2'!B18:B19)/10^6</f>
-        <v>1.053E-4</v>
+      <c r="B6" s="10">
+        <f>AVERAGE('RFF Table 2'!B18:B19)/10^6/About!$A$19</f>
+        <v>9.427036705461056E-5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
-        <f>AVERAGE('RFF Table 2'!B22:B23)/10^6</f>
-        <v>9.5599999999999993E-5</v>
+      <c r="B7" s="10">
+        <f>AVERAGE('RFF Table 2'!B22:B23)/10^6/About!$A$19</f>
+        <v>8.5586392121754694E-5</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/bldgs/ECiCpCU/Embedded Carbon in Components per Currency Unit.xlsx
+++ b/InputData/bldgs/ECiCpCU/Embedded Carbon in Components per Currency Unit.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\ECiCpCU\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="132" windowWidth="21072" windowHeight="12840"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="21075" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RFF Table 2" sheetId="2" r:id="rId2"/>
     <sheet name="ECiCpCU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Resources for the Future</t>
   </si>
@@ -84,9 +89,6 @@
     <t>Other Component</t>
   </si>
   <si>
-    <t>For each component, we average the carbon intensities of the one or more most applicable industries.</t>
-  </si>
-  <si>
     <t>Building Component</t>
   </si>
   <si>
@@ -129,15 +131,21 @@
     <t>See "cpi.xlsx" in the InputData folder for source information.</t>
   </si>
   <si>
-    <t>Embedded tons CO2/2012$</t>
+    <t>Embedded tons CO2e/2012$</t>
+  </si>
+  <si>
+    <t>For each component, we average the carbon intensities of the one or more most applicable industries</t>
+  </si>
+  <si>
+    <t>and divide by the component cost.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -289,7 +297,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="5"/>
@@ -306,6 +314,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -354,7 +365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,7 +400,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,21 +609,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.109375" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -620,74 +633,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>1.117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>1.117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -705,10 +723,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -850,39 +868,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="10">
-        <f>'RFF Table 2'!B3/10^6/About!$A$19</f>
+        <f>'RFF Table 2'!B3/10^6/About!$A$20</f>
         <v>8.191584601611459E-5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="10">
-        <f>'RFF Table 2'!B6/10^6/About!$A$19</f>
+        <f>'RFF Table 2'!B6/10^6/About!$A$20</f>
         <v>8.191584601611459E-5</v>
       </c>
     </row>
@@ -891,34 +914,34 @@
         <v>11</v>
       </c>
       <c r="B4" s="10">
-        <f>AVERAGE('RFF Table 2'!B9:B11)/10^6/About!$A$19</f>
+        <f>AVERAGE('RFF Table 2'!B9:B11)/10^6/About!$A$20</f>
         <v>1.9236347358997314E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="10">
-        <f>AVERAGE('RFF Table 2'!B14:B15)/10^6/About!$A$19</f>
+        <f>AVERAGE('RFF Table 2'!B14:B15)/10^6/About!$A$20</f>
         <v>1.1823634735899729E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="10">
-        <f>AVERAGE('RFF Table 2'!B18:B19)/10^6/About!$A$19</f>
+        <f>AVERAGE('RFF Table 2'!B18:B19)/10^6/About!$A$20</f>
         <v>9.427036705461056E-5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="10">
-        <f>AVERAGE('RFF Table 2'!B22:B23)/10^6/About!$A$19</f>
+        <f>AVERAGE('RFF Table 2'!B22:B23)/10^6/About!$A$20</f>
         <v>8.5586392121754694E-5</v>
       </c>
     </row>
